--- a/data_quarter/zb/国民经济核算/三次产业贡献率.xlsx
+++ b/data_quarter/zb/国民经济核算/三次产业贡献率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,31 @@
           <t>第二产业贡献率_累计值</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>国内生产总值贡献率</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>第一产业贡献率</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>第三产业贡献率</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>第二产业贡献率</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年第一季度</t>
+          <t>2000年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -505,11 +525,23 @@
       <c r="I2" t="n">
         <v>55.4</v>
       </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>55.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年第三季度</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -519,28 +551,40 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="F3" t="n">
-        <v>33.1</v>
+        <v>38.2</v>
       </c>
       <c r="G3" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>61.9</v>
+        <v>59.9</v>
       </c>
       <c r="I3" t="n">
-        <v>59.3</v>
+        <v>57.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年第二季度</t>
+          <t>2000年C</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -550,28 +594,40 @@
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="F4" t="n">
-        <v>38.2</v>
+        <v>33.1</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="H4" t="n">
-        <v>59.9</v>
+        <v>61.9</v>
       </c>
       <c r="I4" t="n">
-        <v>57.9</v>
+        <v>59.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.399999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年第四季度</t>
+          <t>2000年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -598,11 +654,23 @@
       <c r="I5" t="n">
         <v>59.6</v>
       </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8999999999999995</v>
+      </c>
+      <c r="L5" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3000000000000043</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2001年第一季度</t>
+          <t>2001年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -629,11 +697,23 @@
       <c r="I6" t="n">
         <v>43.2</v>
       </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>43.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年第三季度</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -643,28 +723,40 @@
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="E7" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="F7" t="n">
-        <v>48.1</v>
+        <v>46.2</v>
       </c>
       <c r="G7" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="H7" t="n">
-        <v>45.1</v>
+        <v>52.1</v>
       </c>
       <c r="I7" t="n">
-        <v>46.8</v>
+        <v>47.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年第二季度</t>
+          <t>2001年C</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -674,28 +766,40 @@
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="E8" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="F8" t="n">
-        <v>46.2</v>
+        <v>48.1</v>
       </c>
       <c r="G8" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="H8" t="n">
-        <v>52.1</v>
+        <v>45.1</v>
       </c>
       <c r="I8" t="n">
-        <v>47.7</v>
+        <v>46.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>46.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2001年第四季度</t>
+          <t>2001年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -722,11 +826,23 @@
       <c r="I9" t="n">
         <v>46.4</v>
       </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="L9" t="n">
+        <v>49</v>
+      </c>
+      <c r="M9" t="n">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2002年第一季度</t>
+          <t>2002年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -753,11 +869,23 @@
       <c r="I10" t="n">
         <v>43.7</v>
       </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.799999999999997</v>
+      </c>
+      <c r="M10" t="n">
+        <v>43.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2002年第三季度</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -767,28 +895,40 @@
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="E11" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="F11" t="n">
-        <v>43.5</v>
+        <v>45</v>
       </c>
       <c r="G11" t="n">
-        <v>47</v>
+        <v>49.2</v>
       </c>
       <c r="H11" t="n">
-        <v>50.2</v>
+        <v>52.7</v>
       </c>
       <c r="I11" t="n">
-        <v>49.1</v>
+        <v>48.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.699999999999996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2002年第二季度</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -798,28 +938,40 @@
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
       <c r="E12" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="F12" t="n">
-        <v>45</v>
+        <v>43.5</v>
       </c>
       <c r="G12" t="n">
-        <v>49.2</v>
+        <v>47</v>
       </c>
       <c r="H12" t="n">
-        <v>52.7</v>
+        <v>50.2</v>
       </c>
       <c r="I12" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>47</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7000000000000028</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2002年第四季度</t>
+          <t>2002年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -846,11 +998,23 @@
       <c r="I13" t="n">
         <v>49.4</v>
       </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="L13" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.2999999999999972</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2003年第一季度</t>
+          <t>2003年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -877,11 +1041,23 @@
       <c r="I14" t="n">
         <v>52.8</v>
       </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.399999999999999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2003年第三季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -891,28 +1067,40 @@
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>33.9</v>
+        <v>39.5</v>
       </c>
       <c r="G15" t="n">
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="H15" t="n">
-        <v>61.3</v>
+        <v>58.4</v>
       </c>
       <c r="I15" t="n">
-        <v>57.5</v>
+        <v>55.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.700000000000003</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -922,28 +1110,40 @@
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M16" t="n">
         <v>2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>55.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -970,11 +1170,23 @@
       <c r="I17" t="n">
         <v>57.9</v>
       </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>39</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3999999999999986</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1001,11 +1213,23 @@
       <c r="I18" t="n">
         <v>52.6</v>
       </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="M18" t="n">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1015,28 +1239,40 @@
         <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>10.2</v>
+        <v>4.3</v>
       </c>
       <c r="E19" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="F19" t="n">
-        <v>38.4</v>
+        <v>45.5</v>
       </c>
       <c r="G19" t="n">
-        <v>42.9</v>
+        <v>45</v>
       </c>
       <c r="H19" t="n">
-        <v>51.4</v>
+        <v>50.2</v>
       </c>
       <c r="I19" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="M19" t="n">
+        <v>51.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1046,28 +1282,40 @@
         <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>4.3</v>
+        <v>10.2</v>
       </c>
       <c r="E20" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="F20" t="n">
-        <v>45.5</v>
+        <v>38.4</v>
       </c>
       <c r="G20" t="n">
-        <v>45</v>
+        <v>42.9</v>
       </c>
       <c r="H20" t="n">
-        <v>50.2</v>
+        <v>51.4</v>
       </c>
       <c r="I20" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1000000000000014</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1094,11 +1342,23 @@
       <c r="I21" t="n">
         <v>51.8</v>
       </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3999999999999986</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1125,11 +1385,23 @@
       <c r="I22" t="n">
         <v>46.3</v>
       </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="n">
+        <v>46.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1139,28 +1411,40 @@
         <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="F23" t="n">
-        <v>43.9</v>
+        <v>43.5</v>
       </c>
       <c r="G23" t="n">
-        <v>45.9</v>
+        <v>47</v>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I23" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="L23" t="n">
+        <v>47</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1170,28 +1454,40 @@
         <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="E24" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="F24" t="n">
-        <v>43.5</v>
+        <v>43.9</v>
       </c>
       <c r="G24" t="n">
-        <v>47</v>
+        <v>45.9</v>
       </c>
       <c r="H24" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I24" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8999999999999995</v>
+      </c>
+      <c r="L24" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2000000000000028</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1218,11 +1514,23 @@
       <c r="I25" t="n">
         <v>50.5</v>
       </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.6000000000000005</v>
+      </c>
+      <c r="L25" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1249,11 +1557,23 @@
       <c r="I26" t="n">
         <v>47.6</v>
       </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.700000000000003</v>
+      </c>
+      <c r="M26" t="n">
+        <v>47.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1263,28 +1583,40 @@
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="E27" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>44.8</v>
+        <v>43.2</v>
       </c>
       <c r="G27" t="n">
-        <v>45.8</v>
+        <v>46.3</v>
       </c>
       <c r="H27" t="n">
-        <v>50</v>
+        <v>53.2</v>
       </c>
       <c r="I27" t="n">
-        <v>50.4</v>
+        <v>50.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="L27" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1294,28 +1626,40 @@
         <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F28" t="n">
-        <v>43.2</v>
+        <v>44.8</v>
       </c>
       <c r="G28" t="n">
-        <v>46.3</v>
+        <v>45.8</v>
       </c>
       <c r="H28" t="n">
-        <v>53.2</v>
+        <v>50</v>
       </c>
       <c r="I28" t="n">
-        <v>50.6</v>
+        <v>50.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>100</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="L28" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="M28" t="n">
+        <v>50.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1342,11 +1686,23 @@
       <c r="I29" t="n">
         <v>49.7</v>
       </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.6000000000000005</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="M29" t="n">
+        <v>49.7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1373,11 +1729,23 @@
       <c r="I30" t="n">
         <v>49.1</v>
       </c>
+      <c r="J30" t="n">
+        <v>100</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>49.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1387,28 +1755,40 @@
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="E31" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="F31" t="n">
-        <v>47.1</v>
+        <v>45.1</v>
       </c>
       <c r="G31" t="n">
         <v>46.9</v>
       </c>
       <c r="H31" t="n">
-        <v>49.3</v>
+        <v>52.7</v>
       </c>
       <c r="I31" t="n">
-        <v>50.4</v>
+        <v>51.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="L31" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1418,28 +1798,40 @@
         <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="E32" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="F32" t="n">
-        <v>45.1</v>
+        <v>47.1</v>
       </c>
       <c r="G32" t="n">
         <v>46.9</v>
       </c>
       <c r="H32" t="n">
-        <v>52.7</v>
+        <v>49.3</v>
       </c>
       <c r="I32" t="n">
-        <v>51.1</v>
+        <v>50.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>100</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="M32" t="n">
+        <v>50.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1466,11 +1858,23 @@
       <c r="I33" t="n">
         <v>50.1</v>
       </c>
+      <c r="J33" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="M33" t="n">
+        <v>50.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1497,11 +1901,23 @@
       <c r="I34" t="n">
         <v>50.9</v>
       </c>
+      <c r="J34" t="n">
+        <v>100</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7999999999999972</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1511,28 +1927,40 @@
         <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>6.7</v>
+        <v>2.9</v>
       </c>
       <c r="E35" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="F35" t="n">
-        <v>46.7</v>
+        <v>44.6</v>
       </c>
       <c r="G35" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="H35" t="n">
-        <v>46.5</v>
+        <v>52.5</v>
       </c>
       <c r="I35" t="n">
-        <v>50.1</v>
+        <v>51.7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>100</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8000000000000043</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1542,28 +1970,40 @@
         <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="E36" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="F36" t="n">
-        <v>44.6</v>
+        <v>46.7</v>
       </c>
       <c r="G36" t="n">
-        <v>46.1</v>
+        <v>46.3</v>
       </c>
       <c r="H36" t="n">
-        <v>52.5</v>
+        <v>46.5</v>
       </c>
       <c r="I36" t="n">
-        <v>51.7</v>
+        <v>50.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1999999999999957</v>
+      </c>
+      <c r="M36" t="n">
+        <v>50.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1590,11 +2030,23 @@
       <c r="I37" t="n">
         <v>48.6</v>
       </c>
+      <c r="J37" t="n">
+        <v>100</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>48.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1621,11 +2073,23 @@
       <c r="I38" t="n">
         <v>42.2</v>
       </c>
+      <c r="J38" t="n">
+        <v>100</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.399999999999999</v>
+      </c>
+      <c r="M38" t="n">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1635,28 +2099,40 @@
         <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="E39" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="F39" t="n">
-        <v>43.4</v>
+        <v>46.5</v>
       </c>
       <c r="G39" t="n">
-        <v>47</v>
+        <v>49.9</v>
       </c>
       <c r="H39" t="n">
-        <v>52.3</v>
+        <v>50</v>
       </c>
       <c r="I39" t="n">
-        <v>49.2</v>
+        <v>46.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>100</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="L39" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4.599999999999994</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1666,28 +2142,40 @@
         <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="E40" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="F40" t="n">
-        <v>46.5</v>
+        <v>43.4</v>
       </c>
       <c r="G40" t="n">
-        <v>49.9</v>
+        <v>47</v>
       </c>
       <c r="H40" t="n">
-        <v>50</v>
+        <v>52.3</v>
       </c>
       <c r="I40" t="n">
-        <v>46.8</v>
+        <v>49.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>100</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>47</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.400000000000006</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1714,11 +2202,23 @@
       <c r="I41" t="n">
         <v>52.3</v>
       </c>
+      <c r="J41" t="n">
+        <v>100</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="L41" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.099999999999994</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1745,11 +2245,23 @@
       <c r="I42" t="n">
         <v>58.6</v>
       </c>
+      <c r="J42" t="n">
+        <v>100</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L42" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="M42" t="n">
+        <v>6.300000000000004</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1759,28 +2271,40 @@
         <v>100</v>
       </c>
       <c r="D43" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="E43" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>39.9</v>
+        <v>38.4</v>
       </c>
       <c r="G43" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="H43" t="n">
-        <v>55.6</v>
+        <v>59.2</v>
       </c>
       <c r="I43" t="n">
-        <v>57.8</v>
+        <v>58.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>100</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.2999999999999972</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1790,28 +2314,40 @@
         <v>100</v>
       </c>
       <c r="D44" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="F44" t="n">
-        <v>38.4</v>
+        <v>39.9</v>
       </c>
       <c r="G44" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="H44" t="n">
-        <v>59.2</v>
+        <v>55.6</v>
       </c>
       <c r="I44" t="n">
-        <v>58.9</v>
+        <v>57.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>100</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.1999999999999957</v>
+      </c>
+      <c r="M44" t="n">
+        <v>57.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1838,11 +2374,23 @@
       <c r="I45" t="n">
         <v>57.4</v>
       </c>
+      <c r="J45" t="n">
+        <v>100</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="L45" t="n">
+        <v>39</v>
+      </c>
+      <c r="M45" t="n">
+        <v>57.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1869,11 +2417,23 @@
       <c r="I46" t="n">
         <v>49.8</v>
       </c>
+      <c r="J46" t="n">
+        <v>100</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>49.8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1883,28 +2443,40 @@
         <v>100</v>
       </c>
       <c r="D47" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="E47" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="F47" t="n">
-        <v>42.6</v>
+        <v>45.4</v>
       </c>
       <c r="G47" t="n">
-        <v>45.4</v>
+        <v>46.9</v>
       </c>
       <c r="H47" t="n">
         <v>52.5</v>
       </c>
       <c r="I47" t="n">
-        <v>51.7</v>
+        <v>51.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>100</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.400000000000006</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1914,28 +2486,40 @@
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="E48" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="F48" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="G48" t="n">
         <v>45.4</v>
-      </c>
-      <c r="G48" t="n">
-        <v>46.9</v>
       </c>
       <c r="H48" t="n">
         <v>52.5</v>
       </c>
       <c r="I48" t="n">
-        <v>51.2</v>
+        <v>51.7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>100</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1962,11 +2546,23 @@
       <c r="I49" t="n">
         <v>52</v>
       </c>
+      <c r="J49" t="n">
+        <v>100</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.2999999999999972</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1993,11 +2589,23 @@
       <c r="I50" t="n">
         <v>53</v>
       </c>
+      <c r="J50" t="n">
+        <v>100</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.8000000000000043</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2007,28 +2615,40 @@
         <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="E51" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="F51" t="n">
-        <v>46.6</v>
+        <v>45.5</v>
       </c>
       <c r="G51" t="n">
-        <v>45.6</v>
+        <v>45.1</v>
       </c>
       <c r="H51" t="n">
-        <v>47.8</v>
+        <v>50.2</v>
       </c>
       <c r="I51" t="n">
-        <v>50.2</v>
+        <v>51.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>100</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="M51" t="n">
+        <v>51.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2038,28 +2658,40 @@
         <v>100</v>
       </c>
       <c r="D52" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="E52" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="F52" t="n">
-        <v>45.5</v>
+        <v>46.6</v>
       </c>
       <c r="G52" t="n">
-        <v>45.1</v>
+        <v>45.6</v>
       </c>
       <c r="H52" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="I52" t="n">
         <v>50.2</v>
       </c>
-      <c r="I52" t="n">
-        <v>51.5</v>
+      <c r="J52" t="n">
+        <v>100</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>50.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2086,11 +2718,23 @@
       <c r="I53" t="n">
         <v>50</v>
       </c>
+      <c r="J53" t="n">
+        <v>100</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="L53" t="n">
+        <v>45</v>
+      </c>
+      <c r="M53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2117,11 +2761,23 @@
       <c r="I54" t="n">
         <v>45.8</v>
       </c>
+      <c r="J54" t="n">
+        <v>100</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="M54" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2131,28 +2787,40 @@
         <v>100</v>
       </c>
       <c r="D55" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="E55" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="F55" t="n">
-        <v>45.9</v>
+        <v>49.1</v>
       </c>
       <c r="G55" t="n">
-        <v>49</v>
+        <v>50.7</v>
       </c>
       <c r="H55" t="n">
-        <v>49.2</v>
+        <v>48.4</v>
       </c>
       <c r="I55" t="n">
-        <v>47.9</v>
+        <v>47.1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>100</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="L55" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.300000000000004</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2162,28 +2830,40 @@
         <v>100</v>
       </c>
       <c r="D56" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="E56" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="F56" t="n">
-        <v>49.1</v>
+        <v>45.9</v>
       </c>
       <c r="G56" t="n">
-        <v>50.7</v>
+        <v>49</v>
       </c>
       <c r="H56" t="n">
-        <v>48.4</v>
+        <v>49.2</v>
       </c>
       <c r="I56" t="n">
-        <v>47.1</v>
+        <v>47.9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>100</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>49</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7999999999999972</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2210,11 +2890,23 @@
       <c r="I57" t="n">
         <v>48.5</v>
       </c>
+      <c r="J57" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6000000000000014</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2241,11 +2933,23 @@
       <c r="I58" t="n">
         <v>44.7</v>
       </c>
+      <c r="J58" t="n">
+        <v>100</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6.199999999999996</v>
+      </c>
+      <c r="M58" t="n">
+        <v>44.7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2255,28 +2959,40 @@
         <v>100</v>
       </c>
       <c r="D59" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="F59" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="H59" t="n">
         <v>48.1</v>
       </c>
-      <c r="G59" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="H59" t="n">
-        <v>45.7</v>
-      </c>
       <c r="I59" t="n">
-        <v>46.2</v>
+        <v>46.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>100</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="L59" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.799999999999997</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2286,28 +3002,40 @@
         <v>100</v>
       </c>
       <c r="D60" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="E60" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>48.4</v>
+        <v>48.1</v>
       </c>
       <c r="G60" t="n">
-        <v>50.7</v>
+        <v>49.8</v>
       </c>
       <c r="H60" t="n">
-        <v>48.1</v>
+        <v>45.7</v>
       </c>
       <c r="I60" t="n">
-        <v>46.5</v>
+        <v>46.2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>100</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="M60" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2334,11 +3062,23 @@
       <c r="I61" t="n">
         <v>45.6</v>
       </c>
+      <c r="J61" t="n">
+        <v>100</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="M61" t="n">
+        <v>45.6</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2365,11 +3105,23 @@
       <c r="I62" t="n">
         <v>39.7</v>
       </c>
+      <c r="J62" t="n">
+        <v>100</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.399999999999999</v>
+      </c>
+      <c r="M62" t="n">
+        <v>39.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2379,28 +3131,40 @@
         <v>100</v>
       </c>
       <c r="D63" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="E63" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="F63" t="n">
-        <v>56.2</v>
+        <v>56.8</v>
       </c>
       <c r="G63" t="n">
-        <v>57.1</v>
+        <v>57.5</v>
       </c>
       <c r="H63" t="n">
-        <v>38.1</v>
+        <v>39.9</v>
       </c>
       <c r="I63" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>100</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="L63" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.09999999999999432</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2410,28 +3174,40 @@
         <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="E64" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="F64" t="n">
-        <v>56.8</v>
+        <v>56.2</v>
       </c>
       <c r="G64" t="n">
-        <v>57.5</v>
+        <v>57.1</v>
       </c>
       <c r="H64" t="n">
-        <v>39.9</v>
+        <v>38.1</v>
       </c>
       <c r="I64" t="n">
-        <v>39.8</v>
+        <v>39.2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>100</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>39.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2458,11 +3234,23 @@
       <c r="I65" t="n">
         <v>39.7</v>
       </c>
+      <c r="J65" t="n">
+        <v>100</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="L65" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2489,11 +3277,23 @@
       <c r="I66" t="n">
         <v>33.2</v>
       </c>
+      <c r="J66" t="n">
+        <v>100</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.899999999999999</v>
+      </c>
+      <c r="M66" t="n">
+        <v>33.2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2503,28 +3303,40 @@
         <v>100</v>
       </c>
       <c r="D67" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="E67" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="F67" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G67" t="n">
-        <v>60.4</v>
+        <v>61.8</v>
       </c>
       <c r="H67" t="n">
-        <v>36.3</v>
+        <v>37.7</v>
       </c>
       <c r="I67" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>100</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="L67" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.399999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2534,28 +3346,40 @@
         <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="E68" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="F68" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G68" t="n">
-        <v>61.8</v>
+        <v>60.4</v>
       </c>
       <c r="H68" t="n">
-        <v>37.7</v>
+        <v>36.3</v>
       </c>
       <c r="I68" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>100</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.1999999999999957</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2582,11 +3406,23 @@
       <c r="I69" t="n">
         <v>36</v>
       </c>
+      <c r="J69" t="n">
+        <v>100</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="L69" t="n">
+        <v>60</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.2000000000000028</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2613,11 +3449,23 @@
       <c r="I70" t="n">
         <v>33.7</v>
       </c>
+      <c r="J70" t="n">
+        <v>100</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4.299999999999997</v>
+      </c>
+      <c r="M70" t="n">
+        <v>33.7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2627,28 +3475,40 @@
         <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="E71" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="F71" t="n">
-        <v>60.8</v>
+        <v>59.4</v>
       </c>
       <c r="G71" t="n">
-        <v>61.4</v>
+        <v>61.7</v>
       </c>
       <c r="H71" t="n">
-        <v>33.8</v>
+        <v>36.9</v>
       </c>
       <c r="I71" t="n">
-        <v>34.8</v>
+        <v>35.4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>100</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="L71" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.699999999999996</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2658,28 +3518,40 @@
         <v>100</v>
       </c>
       <c r="D72" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="E72" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="F72" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="G72" t="n">
-        <v>61.7</v>
+        <v>61.4</v>
       </c>
       <c r="H72" t="n">
-        <v>36.9</v>
+        <v>33.8</v>
       </c>
       <c r="I72" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
+      </c>
+      <c r="J72" t="n">
+        <v>100</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="L72" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2706,11 +3578,23 @@
       <c r="I73" t="n">
         <v>34.2</v>
       </c>
+      <c r="J73" t="n">
+        <v>100</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="L73" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>34.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2737,11 +3621,23 @@
       <c r="I74" t="n">
         <v>34.4</v>
       </c>
+      <c r="J74" t="n">
+        <v>100</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2.399999999999999</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.1999999999999957</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2751,28 +3647,40 @@
         <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="E75" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="F75" t="n">
-        <v>63.3</v>
+        <v>61.3</v>
       </c>
       <c r="G75" t="n">
-        <v>62.7</v>
+        <v>62.4</v>
       </c>
       <c r="H75" t="n">
-        <v>31.8</v>
+        <v>35.5</v>
       </c>
       <c r="I75" t="n">
-        <v>33.9</v>
+        <v>35</v>
+      </c>
+      <c r="J75" t="n">
+        <v>100</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="L75" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.6000000000000014</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2782,28 +3690,40 @@
         <v>100</v>
       </c>
       <c r="D76" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="F76" t="n">
-        <v>61.3</v>
+        <v>63.3</v>
       </c>
       <c r="G76" t="n">
-        <v>62.4</v>
+        <v>62.7</v>
       </c>
       <c r="H76" t="n">
-        <v>35.5</v>
+        <v>31.8</v>
       </c>
       <c r="I76" t="n">
-        <v>35</v>
+        <v>33.9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>100</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.3000000000000043</v>
+      </c>
+      <c r="M76" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2830,11 +3750,23 @@
       <c r="I77" t="n">
         <v>34.4</v>
       </c>
+      <c r="J77" t="n">
+        <v>100</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="L77" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2861,11 +3793,23 @@
       <c r="I78" t="n">
         <v>32.1</v>
       </c>
+      <c r="J78" t="n">
+        <v>100</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M78" t="n">
+        <v>32.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2875,28 +3819,40 @@
         <v>100</v>
       </c>
       <c r="D79" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E79" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="F79" t="n">
-        <v>65.3</v>
+        <v>64</v>
       </c>
       <c r="G79" t="n">
-        <v>65.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="H79" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="I79" t="n">
-        <v>31.7</v>
+        <v>32.3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>100</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="L79" t="n">
+        <v>65</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.1999999999999957</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2906,28 +3862,40 @@
         <v>100</v>
       </c>
       <c r="D80" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E80" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="F80" t="n">
-        <v>64</v>
+        <v>65.3</v>
       </c>
       <c r="G80" t="n">
-        <v>65</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="I80" t="n">
-        <v>32.3</v>
+        <v>31.7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>100</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="M80" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2954,11 +3922,23 @@
       <c r="I81" t="n">
         <v>32.6</v>
       </c>
+      <c r="J81" t="n">
+        <v>100</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="L81" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.9000000000000021</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2985,11 +3965,23 @@
       <c r="I82" t="n">
         <v>53.2</v>
       </c>
+      <c r="J82" t="n">
+        <v>100</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L82" t="n">
+        <v>45</v>
+      </c>
+      <c r="M82" t="n">
+        <v>20.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2999,28 +3991,40 @@
         <v>100</v>
       </c>
       <c r="D83" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="E83" t="n">
-        <v>25.3</v>
+        <v>-3.1</v>
       </c>
       <c r="F83" t="n">
-        <v>45.3</v>
+        <v>32</v>
       </c>
       <c r="G83" t="n">
-        <v>24.4</v>
+        <v>57.4</v>
       </c>
       <c r="H83" t="n">
-        <v>47.4</v>
+        <v>60.9</v>
       </c>
       <c r="I83" t="n">
-        <v>50.4</v>
+        <v>45.7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>100</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M83" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3030,28 +4034,40 @@
         <v>100</v>
       </c>
       <c r="D84" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="E84" t="n">
-        <v>-3.1</v>
+        <v>25.3</v>
       </c>
       <c r="F84" t="n">
-        <v>32</v>
+        <v>45.3</v>
       </c>
       <c r="G84" t="n">
-        <v>57.4</v>
+        <v>24.4</v>
       </c>
       <c r="H84" t="n">
-        <v>60.9</v>
+        <v>47.4</v>
       </c>
       <c r="I84" t="n">
-        <v>45.7</v>
+        <v>50.4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>100</v>
+      </c>
+      <c r="K84" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="L84" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4.699999999999996</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3078,11 +4094,23 @@
       <c r="I85" t="n">
         <v>43.3</v>
       </c>
+      <c r="J85" t="n">
+        <v>100</v>
+      </c>
+      <c r="K85" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="M85" t="n">
+        <v>43.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3109,11 +4137,23 @@
       <c r="I86" t="n">
         <v>47.1</v>
       </c>
+      <c r="J86" t="n">
+        <v>100</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3.800000000000004</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3123,28 +4163,40 @@
         <v>100</v>
       </c>
       <c r="D87" t="n">
-        <v>12.7</v>
+        <v>6.2</v>
       </c>
       <c r="E87" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="F87" t="n">
-        <v>59.7</v>
+        <v>57</v>
       </c>
       <c r="G87" t="n">
-        <v>54.2</v>
+        <v>52.9</v>
       </c>
       <c r="H87" t="n">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
       <c r="I87" t="n">
-        <v>40.7</v>
+        <v>43.6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>100</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="M87" t="n">
+        <v>43.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3154,28 +4206,40 @@
         <v>100</v>
       </c>
       <c r="D88" t="n">
-        <v>6.2</v>
+        <v>12.7</v>
       </c>
       <c r="E88" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="F88" t="n">
-        <v>57</v>
+        <v>59.7</v>
       </c>
       <c r="G88" t="n">
-        <v>52.9</v>
+        <v>54.2</v>
       </c>
       <c r="H88" t="n">
-        <v>36.8</v>
+        <v>27.6</v>
       </c>
       <c r="I88" t="n">
-        <v>43.6</v>
+        <v>40.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>100</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.300000000000004</v>
+      </c>
+      <c r="M88" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3200,6 +4264,18 @@
         <v>24.6</v>
       </c>
       <c r="I89" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>100</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.6999999999999957</v>
+      </c>
+      <c r="M89" t="n">
         <v>38.4</v>
       </c>
     </row>

--- a/data_quarter/zb/国民经济核算/三次产业贡献率.xlsx
+++ b/data_quarter/zb/国民经济核算/三次产业贡献率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,26 +474,6 @@
           <t>第二产业贡献率_累计值</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>国内生产总值贡献率</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>第一产业贡献率</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>第三产业贡献率</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>第二产业贡献率</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -525,23 +505,11 @@
       <c r="I2" t="n">
         <v>55.4</v>
       </c>
-      <c r="J2" t="n">
-        <v>100</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>55.4</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年B</t>
+          <t>2000年C</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -551,40 +519,28 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="F3" t="n">
-        <v>38.2</v>
+        <v>33.1</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="H3" t="n">
-        <v>59.9</v>
+        <v>61.9</v>
       </c>
       <c r="I3" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>40</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.5</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年C</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -594,34 +550,22 @@
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="E4" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="F4" t="n">
-        <v>33.1</v>
+        <v>38.2</v>
       </c>
       <c r="G4" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>61.9</v>
+        <v>59.9</v>
       </c>
       <c r="I4" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.399999999999999</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="5">
@@ -654,18 +598,6 @@
       <c r="I5" t="n">
         <v>59.6</v>
       </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.8999999999999995</v>
-      </c>
-      <c r="L5" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.3000000000000043</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -697,23 +629,11 @@
       <c r="I6" t="n">
         <v>43.2</v>
       </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>43.2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年B</t>
+          <t>2001年C</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -723,40 +643,28 @@
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="E7" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="F7" t="n">
-        <v>46.2</v>
+        <v>48.1</v>
       </c>
       <c r="G7" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="H7" t="n">
-        <v>52.1</v>
+        <v>45.1</v>
       </c>
       <c r="I7" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4.5</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年C</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -766,34 +674,22 @@
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="E8" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="F8" t="n">
-        <v>48.1</v>
+        <v>46.2</v>
       </c>
       <c r="G8" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="H8" t="n">
-        <v>45.1</v>
+        <v>52.1</v>
       </c>
       <c r="I8" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>46.8</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="9">
@@ -826,18 +722,6 @@
       <c r="I9" t="n">
         <v>46.4</v>
       </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.6999999999999997</v>
-      </c>
-      <c r="L9" t="n">
-        <v>49</v>
-      </c>
-      <c r="M9" t="n">
-        <v>46.4</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -869,23 +753,11 @@
       <c r="I10" t="n">
         <v>43.7</v>
       </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.799999999999997</v>
-      </c>
-      <c r="M10" t="n">
-        <v>43.7</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2002年B</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -895,40 +767,28 @@
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
       <c r="E11" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="F11" t="n">
-        <v>45</v>
+        <v>43.5</v>
       </c>
       <c r="G11" t="n">
-        <v>49.2</v>
+        <v>47</v>
       </c>
       <c r="H11" t="n">
-        <v>52.7</v>
+        <v>50.2</v>
       </c>
       <c r="I11" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4.699999999999996</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2002年C</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -938,34 +798,22 @@
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="E12" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="F12" t="n">
-        <v>43.5</v>
+        <v>45</v>
       </c>
       <c r="G12" t="n">
-        <v>47</v>
+        <v>49.2</v>
       </c>
       <c r="H12" t="n">
-        <v>50.2</v>
+        <v>52.7</v>
       </c>
       <c r="I12" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>47</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.7000000000000028</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="13">
@@ -998,18 +846,6 @@
       <c r="I13" t="n">
         <v>49.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="L13" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.2999999999999972</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1041,23 +877,11 @@
       <c r="I14" t="n">
         <v>52.8</v>
       </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.399999999999999</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2003年B</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1067,40 +891,28 @@
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="G15" t="n">
         <v>39.5</v>
       </c>
-      <c r="G15" t="n">
-        <v>42.5</v>
-      </c>
       <c r="H15" t="n">
-        <v>58.4</v>
+        <v>61.3</v>
       </c>
       <c r="I15" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="L15" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.700000000000003</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2003年C</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1110,34 +922,22 @@
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>33.9</v>
+        <v>39.5</v>
       </c>
       <c r="G16" t="n">
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="H16" t="n">
-        <v>61.3</v>
+        <v>58.4</v>
       </c>
       <c r="I16" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="17">
@@ -1170,18 +970,6 @@
       <c r="I17" t="n">
         <v>57.9</v>
       </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="L17" t="n">
-        <v>39</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.3999999999999986</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1213,23 +1001,11 @@
       <c r="I18" t="n">
         <v>52.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="M18" t="n">
-        <v>52.6</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1239,40 +1015,28 @@
         <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>4.3</v>
+        <v>10.2</v>
       </c>
       <c r="E19" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="F19" t="n">
-        <v>45.5</v>
+        <v>38.4</v>
       </c>
       <c r="G19" t="n">
-        <v>45</v>
+        <v>42.9</v>
       </c>
       <c r="H19" t="n">
-        <v>50.2</v>
+        <v>51.4</v>
       </c>
       <c r="I19" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.8000000000000003</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="M19" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1282,34 +1046,22 @@
         <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>10.2</v>
+        <v>4.3</v>
       </c>
       <c r="E20" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="F20" t="n">
-        <v>38.4</v>
+        <v>45.5</v>
       </c>
       <c r="G20" t="n">
-        <v>42.9</v>
+        <v>45</v>
       </c>
       <c r="H20" t="n">
-        <v>51.4</v>
+        <v>50.2</v>
       </c>
       <c r="I20" t="n">
-        <v>51.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.1000000000000014</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="21">
@@ -1342,18 +1094,6 @@
       <c r="I21" t="n">
         <v>51.8</v>
       </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.3999999999999986</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1385,23 +1125,11 @@
       <c r="I22" t="n">
         <v>46.3</v>
       </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L22" t="n">
-        <v>10</v>
-      </c>
-      <c r="M22" t="n">
-        <v>46.3</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1411,40 +1139,28 @@
         <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="E23" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="F23" t="n">
-        <v>43.5</v>
+        <v>43.9</v>
       </c>
       <c r="G23" t="n">
-        <v>47</v>
+        <v>45.9</v>
       </c>
       <c r="H23" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.8000000000000003</v>
-      </c>
-      <c r="L23" t="n">
-        <v>47</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1454,34 +1170,22 @@
         <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="E24" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="F24" t="n">
-        <v>43.9</v>
+        <v>43.5</v>
       </c>
       <c r="G24" t="n">
-        <v>45.9</v>
+        <v>47</v>
       </c>
       <c r="H24" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I24" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.8999999999999995</v>
-      </c>
-      <c r="L24" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.2000000000000028</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="25">
@@ -1514,18 +1218,6 @@
       <c r="I25" t="n">
         <v>50.5</v>
       </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.6000000000000005</v>
-      </c>
-      <c r="L25" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1557,23 +1249,11 @@
       <c r="I26" t="n">
         <v>47.6</v>
       </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="M26" t="n">
-        <v>47.6</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1583,40 +1263,28 @@
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F27" t="n">
-        <v>43.2</v>
+        <v>44.8</v>
       </c>
       <c r="G27" t="n">
-        <v>46.3</v>
+        <v>45.8</v>
       </c>
       <c r="H27" t="n">
-        <v>53.2</v>
+        <v>50</v>
       </c>
       <c r="I27" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="L27" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1626,34 +1294,22 @@
         <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="E28" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>44.8</v>
+        <v>43.2</v>
       </c>
       <c r="G28" t="n">
-        <v>45.8</v>
+        <v>46.3</v>
       </c>
       <c r="H28" t="n">
-        <v>50</v>
+        <v>53.2</v>
       </c>
       <c r="I28" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="L28" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="M28" t="n">
-        <v>50.4</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="29">
@@ -1686,18 +1342,6 @@
       <c r="I29" t="n">
         <v>49.7</v>
       </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.6000000000000005</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="M29" t="n">
-        <v>49.7</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1729,23 +1373,11 @@
       <c r="I30" t="n">
         <v>49.1</v>
       </c>
-      <c r="J30" t="n">
-        <v>100</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.100000000000001</v>
-      </c>
-      <c r="M30" t="n">
-        <v>49.1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1755,40 +1387,28 @@
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="E31" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="F31" t="n">
-        <v>45.1</v>
+        <v>47.1</v>
       </c>
       <c r="G31" t="n">
         <v>46.9</v>
       </c>
       <c r="H31" t="n">
-        <v>52.7</v>
+        <v>49.3</v>
       </c>
       <c r="I31" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>100</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="L31" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1798,34 +1418,22 @@
         <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="E32" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="F32" t="n">
-        <v>47.1</v>
+        <v>45.1</v>
       </c>
       <c r="G32" t="n">
         <v>46.9</v>
       </c>
       <c r="H32" t="n">
-        <v>49.3</v>
+        <v>52.7</v>
       </c>
       <c r="I32" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>100</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="M32" t="n">
-        <v>50.4</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="33">
@@ -1858,18 +1466,6 @@
       <c r="I33" t="n">
         <v>50.1</v>
       </c>
-      <c r="J33" t="n">
-        <v>100</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="M33" t="n">
-        <v>50.1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1901,23 +1497,11 @@
       <c r="I34" t="n">
         <v>50.9</v>
       </c>
-      <c r="J34" t="n">
-        <v>100</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7999999999999972</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1927,40 +1511,28 @@
         <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="E35" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="F35" t="n">
-        <v>44.6</v>
+        <v>46.7</v>
       </c>
       <c r="G35" t="n">
-        <v>46.1</v>
+        <v>46.3</v>
       </c>
       <c r="H35" t="n">
-        <v>52.5</v>
+        <v>46.5</v>
       </c>
       <c r="I35" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>100</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L35" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.8000000000000043</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1970,34 +1542,22 @@
         <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>6.7</v>
+        <v>2.9</v>
       </c>
       <c r="E36" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="F36" t="n">
-        <v>46.7</v>
+        <v>44.6</v>
       </c>
       <c r="G36" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="H36" t="n">
-        <v>46.5</v>
+        <v>52.5</v>
       </c>
       <c r="I36" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>100</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.1999999999999957</v>
-      </c>
-      <c r="M36" t="n">
-        <v>50.1</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="37">
@@ -2030,18 +1590,6 @@
       <c r="I37" t="n">
         <v>48.6</v>
       </c>
-      <c r="J37" t="n">
-        <v>100</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L37" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>48.6</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2073,23 +1621,11 @@
       <c r="I38" t="n">
         <v>42.2</v>
       </c>
-      <c r="J38" t="n">
-        <v>100</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>8.399999999999999</v>
-      </c>
-      <c r="M38" t="n">
-        <v>42.2</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2099,40 +1635,28 @@
         <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="E39" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="F39" t="n">
-        <v>46.5</v>
+        <v>43.4</v>
       </c>
       <c r="G39" t="n">
-        <v>49.9</v>
+        <v>47</v>
       </c>
       <c r="H39" t="n">
-        <v>50</v>
+        <v>52.3</v>
       </c>
       <c r="I39" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>100</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="L39" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4.599999999999994</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2142,34 +1666,22 @@
         <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="E40" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="F40" t="n">
-        <v>43.4</v>
+        <v>46.5</v>
       </c>
       <c r="G40" t="n">
-        <v>47</v>
+        <v>49.9</v>
       </c>
       <c r="H40" t="n">
-        <v>52.3</v>
+        <v>50</v>
       </c>
       <c r="I40" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>100</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>47</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2.400000000000006</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="41">
@@ -2202,18 +1714,6 @@
       <c r="I41" t="n">
         <v>52.3</v>
       </c>
-      <c r="J41" t="n">
-        <v>100</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="L41" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3.099999999999994</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2245,23 +1745,11 @@
       <c r="I42" t="n">
         <v>58.6</v>
       </c>
-      <c r="J42" t="n">
-        <v>100</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L42" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="M42" t="n">
-        <v>6.300000000000004</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2271,40 +1759,28 @@
         <v>100</v>
       </c>
       <c r="D43" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="F43" t="n">
-        <v>38.4</v>
+        <v>39.9</v>
       </c>
       <c r="G43" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="H43" t="n">
-        <v>59.2</v>
+        <v>55.6</v>
       </c>
       <c r="I43" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>100</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.2999999999999972</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2314,34 +1790,22 @@
         <v>100</v>
       </c>
       <c r="D44" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="E44" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>39.9</v>
+        <v>38.4</v>
       </c>
       <c r="G44" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="H44" t="n">
-        <v>55.6</v>
+        <v>59.2</v>
       </c>
       <c r="I44" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>100</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.1999999999999957</v>
-      </c>
-      <c r="M44" t="n">
-        <v>57.8</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="45">
@@ -2374,18 +1838,6 @@
       <c r="I45" t="n">
         <v>57.4</v>
       </c>
-      <c r="J45" t="n">
-        <v>100</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="L45" t="n">
-        <v>39</v>
-      </c>
-      <c r="M45" t="n">
-        <v>57.4</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2417,23 +1869,11 @@
       <c r="I46" t="n">
         <v>49.8</v>
       </c>
-      <c r="J46" t="n">
-        <v>100</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L46" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M46" t="n">
-        <v>49.8</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2443,40 +1883,28 @@
         <v>100</v>
       </c>
       <c r="D47" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="E47" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="F47" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="G47" t="n">
         <v>45.4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>46.9</v>
       </c>
       <c r="H47" t="n">
         <v>52.5</v>
       </c>
       <c r="I47" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>100</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.400000000000006</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2486,34 +1914,22 @@
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="E48" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="F48" t="n">
-        <v>42.6</v>
+        <v>45.4</v>
       </c>
       <c r="G48" t="n">
-        <v>45.4</v>
+        <v>46.9</v>
       </c>
       <c r="H48" t="n">
         <v>52.5</v>
       </c>
       <c r="I48" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>100</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.5</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="49">
@@ -2546,18 +1962,6 @@
       <c r="I49" t="n">
         <v>52</v>
       </c>
-      <c r="J49" t="n">
-        <v>100</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L49" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.2999999999999972</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2589,23 +1993,11 @@
       <c r="I50" t="n">
         <v>53</v>
       </c>
-      <c r="J50" t="n">
-        <v>100</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.8000000000000043</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2615,40 +2007,28 @@
         <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="E51" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="F51" t="n">
-        <v>45.5</v>
+        <v>46.6</v>
       </c>
       <c r="G51" t="n">
-        <v>45.1</v>
+        <v>45.6</v>
       </c>
       <c r="H51" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="I51" t="n">
         <v>50.2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>100</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="M51" t="n">
-        <v>51.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2658,34 +2038,22 @@
         <v>100</v>
       </c>
       <c r="D52" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="E52" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="F52" t="n">
-        <v>46.6</v>
+        <v>45.5</v>
       </c>
       <c r="G52" t="n">
-        <v>45.6</v>
+        <v>45.1</v>
       </c>
       <c r="H52" t="n">
-        <v>47.8</v>
+        <v>50.2</v>
       </c>
       <c r="I52" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>100</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M52" t="n">
-        <v>50.2</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="53">
@@ -2718,18 +2086,6 @@
       <c r="I53" t="n">
         <v>50</v>
       </c>
-      <c r="J53" t="n">
-        <v>100</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="L53" t="n">
-        <v>45</v>
-      </c>
-      <c r="M53" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2761,23 +2117,11 @@
       <c r="I54" t="n">
         <v>45.8</v>
       </c>
-      <c r="J54" t="n">
-        <v>100</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L54" t="n">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="M54" t="n">
-        <v>45.8</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2787,40 +2131,28 @@
         <v>100</v>
       </c>
       <c r="D55" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="E55" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="F55" t="n">
-        <v>49.1</v>
+        <v>45.9</v>
       </c>
       <c r="G55" t="n">
-        <v>50.7</v>
+        <v>49</v>
       </c>
       <c r="H55" t="n">
-        <v>48.4</v>
+        <v>49.2</v>
       </c>
       <c r="I55" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>100</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="L55" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.300000000000004</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2830,34 +2162,22 @@
         <v>100</v>
       </c>
       <c r="D56" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="E56" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="F56" t="n">
-        <v>45.9</v>
+        <v>49.1</v>
       </c>
       <c r="G56" t="n">
-        <v>49</v>
+        <v>50.7</v>
       </c>
       <c r="H56" t="n">
-        <v>49.2</v>
+        <v>48.4</v>
       </c>
       <c r="I56" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>100</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" t="n">
-        <v>49</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.7999999999999972</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="57">
@@ -2890,18 +2210,6 @@
       <c r="I57" t="n">
         <v>48.5</v>
       </c>
-      <c r="J57" t="n">
-        <v>100</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.6000000000000014</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2933,23 +2241,11 @@
       <c r="I58" t="n">
         <v>44.7</v>
       </c>
-      <c r="J58" t="n">
-        <v>100</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6.199999999999996</v>
-      </c>
-      <c r="M58" t="n">
-        <v>44.7</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2959,40 +2255,28 @@
         <v>100</v>
       </c>
       <c r="D59" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="E59" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>48.4</v>
+        <v>48.1</v>
       </c>
       <c r="G59" t="n">
-        <v>50.7</v>
+        <v>49.8</v>
       </c>
       <c r="H59" t="n">
-        <v>48.1</v>
+        <v>45.7</v>
       </c>
       <c r="I59" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>100</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="L59" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.799999999999997</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3002,34 +2286,22 @@
         <v>100</v>
       </c>
       <c r="D60" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="F60" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="H60" t="n">
         <v>48.1</v>
       </c>
-      <c r="G60" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="H60" t="n">
-        <v>45.7</v>
-      </c>
       <c r="I60" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>100</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L60" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="M60" t="n">
-        <v>46.2</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="61">
@@ -3062,18 +2334,6 @@
       <c r="I61" t="n">
         <v>45.6</v>
       </c>
-      <c r="J61" t="n">
-        <v>100</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="M61" t="n">
-        <v>45.6</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3105,23 +2365,11 @@
       <c r="I62" t="n">
         <v>39.7</v>
       </c>
-      <c r="J62" t="n">
-        <v>100</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L62" t="n">
-        <v>8.399999999999999</v>
-      </c>
-      <c r="M62" t="n">
-        <v>39.7</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -3131,40 +2379,28 @@
         <v>100</v>
       </c>
       <c r="D63" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="E63" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="F63" t="n">
-        <v>56.8</v>
+        <v>56.2</v>
       </c>
       <c r="G63" t="n">
-        <v>57.5</v>
+        <v>57.1</v>
       </c>
       <c r="H63" t="n">
-        <v>39.9</v>
+        <v>38.1</v>
       </c>
       <c r="I63" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>100</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.8000000000000003</v>
-      </c>
-      <c r="L63" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.09999999999999432</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3174,34 +2410,22 @@
         <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="E64" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="F64" t="n">
-        <v>56.2</v>
+        <v>56.8</v>
       </c>
       <c r="G64" t="n">
-        <v>57.1</v>
+        <v>57.5</v>
       </c>
       <c r="H64" t="n">
-        <v>38.1</v>
+        <v>39.9</v>
       </c>
       <c r="I64" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>100</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="M64" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="65">
@@ -3234,18 +2458,6 @@
       <c r="I65" t="n">
         <v>39.7</v>
       </c>
-      <c r="J65" t="n">
-        <v>100</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="L65" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -3277,23 +2489,11 @@
       <c r="I66" t="n">
         <v>33.2</v>
       </c>
-      <c r="J66" t="n">
-        <v>100</v>
-      </c>
-      <c r="K66" t="n">
-        <v>2</v>
-      </c>
-      <c r="L66" t="n">
-        <v>8.899999999999999</v>
-      </c>
-      <c r="M66" t="n">
-        <v>33.2</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3303,40 +2503,28 @@
         <v>100</v>
       </c>
       <c r="D67" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="E67" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="F67" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G67" t="n">
-        <v>61.8</v>
+        <v>60.4</v>
       </c>
       <c r="H67" t="n">
-        <v>37.7</v>
+        <v>36.3</v>
       </c>
       <c r="I67" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>100</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="L67" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="M67" t="n">
-        <v>2.399999999999999</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3346,34 +2534,22 @@
         <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="E68" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="F68" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G68" t="n">
-        <v>60.4</v>
+        <v>61.8</v>
       </c>
       <c r="H68" t="n">
-        <v>36.3</v>
+        <v>37.7</v>
       </c>
       <c r="I68" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>100</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.1999999999999957</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="69">
@@ -3406,18 +2582,6 @@
       <c r="I69" t="n">
         <v>36</v>
       </c>
-      <c r="J69" t="n">
-        <v>100</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="L69" t="n">
-        <v>60</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -3449,23 +2613,11 @@
       <c r="I70" t="n">
         <v>33.7</v>
       </c>
-      <c r="J70" t="n">
-        <v>100</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.299999999999997</v>
-      </c>
-      <c r="M70" t="n">
-        <v>33.7</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3475,40 +2627,28 @@
         <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="E71" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="F71" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="G71" t="n">
-        <v>61.7</v>
+        <v>61.4</v>
       </c>
       <c r="H71" t="n">
-        <v>36.9</v>
+        <v>33.8</v>
       </c>
       <c r="I71" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>100</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="L71" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.699999999999996</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3518,34 +2658,22 @@
         <v>100</v>
       </c>
       <c r="D72" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="E72" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="F72" t="n">
-        <v>60.8</v>
+        <v>59.4</v>
       </c>
       <c r="G72" t="n">
-        <v>61.4</v>
+        <v>61.7</v>
       </c>
       <c r="H72" t="n">
-        <v>33.8</v>
+        <v>36.9</v>
       </c>
       <c r="I72" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>100</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="L72" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="M72" t="n">
-        <v>34.8</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="73">
@@ -3578,18 +2706,6 @@
       <c r="I73" t="n">
         <v>34.2</v>
       </c>
-      <c r="J73" t="n">
-        <v>100</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="L73" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="M73" t="n">
-        <v>34.2</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3621,23 +2737,11 @@
       <c r="I74" t="n">
         <v>34.4</v>
       </c>
-      <c r="J74" t="n">
-        <v>100</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.1999999999999957</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3647,40 +2751,28 @@
         <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="F75" t="n">
-        <v>61.3</v>
+        <v>63.3</v>
       </c>
       <c r="G75" t="n">
-        <v>62.4</v>
+        <v>62.7</v>
       </c>
       <c r="H75" t="n">
-        <v>35.5</v>
+        <v>31.8</v>
       </c>
       <c r="I75" t="n">
-        <v>35</v>
-      </c>
-      <c r="J75" t="n">
-        <v>100</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="L75" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.6000000000000014</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3690,34 +2782,22 @@
         <v>100</v>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="E76" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="F76" t="n">
-        <v>63.3</v>
+        <v>61.3</v>
       </c>
       <c r="G76" t="n">
-        <v>62.7</v>
+        <v>62.4</v>
       </c>
       <c r="H76" t="n">
-        <v>31.8</v>
+        <v>35.5</v>
       </c>
       <c r="I76" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>100</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="M76" t="n">
-        <v>33.9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -3750,18 +2830,6 @@
       <c r="I77" t="n">
         <v>34.4</v>
       </c>
-      <c r="J77" t="n">
-        <v>100</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="L77" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3793,23 +2861,11 @@
       <c r="I78" t="n">
         <v>32.1</v>
       </c>
-      <c r="J78" t="n">
-        <v>100</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M78" t="n">
-        <v>32.1</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3819,40 +2875,28 @@
         <v>100</v>
       </c>
       <c r="D79" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E79" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="F79" t="n">
-        <v>64</v>
+        <v>65.3</v>
       </c>
       <c r="G79" t="n">
-        <v>65</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="I79" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>100</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.8000000000000003</v>
-      </c>
-      <c r="L79" t="n">
-        <v>65</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.1999999999999957</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3862,34 +2906,22 @@
         <v>100</v>
       </c>
       <c r="D80" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E80" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="F80" t="n">
-        <v>65.3</v>
+        <v>64</v>
       </c>
       <c r="G80" t="n">
-        <v>65.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="H80" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="I80" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>100</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="M80" t="n">
-        <v>31.7</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="81">
@@ -3922,18 +2954,6 @@
       <c r="I81" t="n">
         <v>32.6</v>
       </c>
-      <c r="J81" t="n">
-        <v>100</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.6999999999999997</v>
-      </c>
-      <c r="L81" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9000000000000021</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3965,23 +2985,11 @@
       <c r="I82" t="n">
         <v>53.2</v>
       </c>
-      <c r="J82" t="n">
-        <v>100</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L82" t="n">
-        <v>45</v>
-      </c>
-      <c r="M82" t="n">
-        <v>20.6</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3991,40 +2999,28 @@
         <v>100</v>
       </c>
       <c r="D83" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="E83" t="n">
-        <v>-3.1</v>
+        <v>25.3</v>
       </c>
       <c r="F83" t="n">
-        <v>32</v>
+        <v>45.3</v>
       </c>
       <c r="G83" t="n">
-        <v>57.4</v>
+        <v>24.4</v>
       </c>
       <c r="H83" t="n">
-        <v>60.9</v>
+        <v>47.4</v>
       </c>
       <c r="I83" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>100</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="L83" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="M83" t="n">
-        <v>45.7</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -4034,34 +3030,22 @@
         <v>100</v>
       </c>
       <c r="D84" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="E84" t="n">
-        <v>25.3</v>
+        <v>-3.1</v>
       </c>
       <c r="F84" t="n">
-        <v>45.3</v>
+        <v>32</v>
       </c>
       <c r="G84" t="n">
-        <v>24.4</v>
+        <v>57.4</v>
       </c>
       <c r="H84" t="n">
-        <v>47.4</v>
+        <v>60.9</v>
       </c>
       <c r="I84" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>100</v>
-      </c>
-      <c r="K84" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="L84" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="M84" t="n">
-        <v>4.699999999999996</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="85">
@@ -4094,18 +3078,6 @@
       <c r="I85" t="n">
         <v>43.3</v>
       </c>
-      <c r="J85" t="n">
-        <v>100</v>
-      </c>
-      <c r="K85" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="L85" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="M85" t="n">
-        <v>43.3</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -4132,28 +3104,16 @@
         <v>50.8</v>
       </c>
       <c r="H86" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="I86" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>100</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M86" t="n">
-        <v>3.800000000000004</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4163,40 +3123,28 @@
         <v>100</v>
       </c>
       <c r="D87" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="E87" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
-        <v>57</v>
+        <v>59.2</v>
       </c>
       <c r="G87" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="H87" t="n">
-        <v>36.8</v>
+        <v>28.7</v>
       </c>
       <c r="I87" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>100</v>
-      </c>
-      <c r="K87" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="M87" t="n">
-        <v>43.6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -4206,34 +3154,22 @@
         <v>100</v>
       </c>
       <c r="D88" t="n">
-        <v>12.7</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="F88" t="n">
-        <v>59.7</v>
+        <v>56.6</v>
       </c>
       <c r="G88" t="n">
-        <v>54.2</v>
+        <v>52.8</v>
       </c>
       <c r="H88" t="n">
-        <v>27.6</v>
+        <v>37.4</v>
       </c>
       <c r="I88" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>100</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1.300000000000004</v>
-      </c>
-      <c r="M88" t="n">
-        <v>40.7</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="89">
@@ -4249,34 +3185,22 @@
         <v>100</v>
       </c>
       <c r="D89" t="n">
-        <v>15.9</v>
+        <v>14.8</v>
       </c>
       <c r="E89" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F89" t="n">
-        <v>59.5</v>
+        <v>58.6</v>
       </c>
       <c r="G89" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="H89" t="n">
-        <v>24.6</v>
+        <v>26.7</v>
       </c>
       <c r="I89" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>100</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.6999999999999957</v>
-      </c>
-      <c r="M89" t="n">
-        <v>38.4</v>
+        <v>38.9</v>
       </c>
     </row>
   </sheetData>
